--- a/dist/diggr_vocabulary.xlsx
+++ b/dist/diggr_vocabulary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>diggr vocabular</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>NEC PC Engine</t>
+  </si>
+  <si>
+    <t>NEC PC</t>
   </si>
   <si>
     <t xml:space="preserve">Neo Geo Pocket Color </t>
@@ -1130,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,99 +1811,99 @@
       <c r="A110" t="s">
         <v>115</v>
       </c>
-      <c r="B110" t="s">
-        <v>116</v>
-      </c>
+      <c r="B110" t="s"/>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
         <v>117</v>
-      </c>
-      <c r="B111" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="s">
         <v>119</v>
       </c>
-      <c r="B112" t="s"/>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>120</v>
       </c>
-      <c r="B113" t="s">
-        <v>121</v>
-      </c>
+      <c r="B113" t="s"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
         <v>122</v>
-      </c>
-      <c r="B114" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
         <v>124</v>
-      </c>
-      <c r="B115" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
         <v>126</v>
-      </c>
-      <c r="B116" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
         <v>128</v>
       </c>
-      <c r="B117" t="s"/>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>129</v>
       </c>
-      <c r="B118" t="s">
-        <v>130</v>
-      </c>
+      <c r="B118" t="s"/>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" t="s">
         <v>131</v>
-      </c>
-      <c r="B119" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
         <v>133</v>
-      </c>
-      <c r="B120" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" t="s">
         <v>135</v>
-      </c>
-      <c r="B121" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" t="s">
         <v>137</v>
       </c>
-      <c r="B122" t="s"/>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
@@ -1912,23 +1915,23 @@
       <c r="A124" t="s">
         <v>139</v>
       </c>
-      <c r="B124" t="s">
-        <v>140</v>
-      </c>
+      <c r="B124" t="s"/>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" t="s">
         <v>141</v>
-      </c>
-      <c r="B125" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" t="s">
         <v>143</v>
       </c>
-      <c r="B126" t="s"/>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
@@ -2096,23 +2099,23 @@
       <c r="A154" t="s">
         <v>171</v>
       </c>
-      <c r="B154" t="s">
-        <v>172</v>
-      </c>
+      <c r="B154" t="s"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155" t="s">
         <v>173</v>
-      </c>
-      <c r="B155" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156" t="s">
         <v>175</v>
       </c>
-      <c r="B156" t="s"/>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
@@ -2124,23 +2127,23 @@
       <c r="A158" t="s">
         <v>177</v>
       </c>
-      <c r="B158" t="s">
-        <v>178</v>
-      </c>
+      <c r="B158" t="s"/>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" t="s">
         <v>179</v>
-      </c>
-      <c r="B159" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" t="s">
         <v>181</v>
       </c>
-      <c r="B160" t="s"/>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
@@ -2152,15 +2155,15 @@
       <c r="A162" t="s">
         <v>183</v>
       </c>
-      <c r="B162" t="s">
-        <v>184</v>
-      </c>
+      <c r="B162" t="s"/>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" t="s">
         <v>185</v>
       </c>
-      <c r="B163" t="s"/>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
@@ -2226,39 +2229,39 @@
       <c r="A174" t="s">
         <v>196</v>
       </c>
-      <c r="B174" t="s">
-        <v>197</v>
-      </c>
+      <c r="B174" t="s"/>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
+        <v>197</v>
+      </c>
+      <c r="B175" t="s">
         <v>198</v>
-      </c>
-      <c r="B175" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B176" t="s">
         <v>200</v>
-      </c>
-      <c r="B176" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" t="s">
         <v>202</v>
-      </c>
-      <c r="B177" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178" t="s">
         <v>204</v>
       </c>
-      <c r="B178" t="s"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
@@ -2276,23 +2279,23 @@
       <c r="A181" t="s">
         <v>207</v>
       </c>
-      <c r="B181" t="s">
-        <v>208</v>
-      </c>
+      <c r="B181" t="s"/>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
+        <v>208</v>
+      </c>
+      <c r="B182" t="s">
         <v>209</v>
-      </c>
-      <c r="B182" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183" t="s">
         <v>211</v>
       </c>
-      <c r="B183" t="s"/>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
@@ -2322,15 +2325,15 @@
       <c r="A188" t="s">
         <v>216</v>
       </c>
-      <c r="B188" t="s">
-        <v>217</v>
-      </c>
+      <c r="B188" t="s"/>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
+        <v>217</v>
+      </c>
+      <c r="B189" t="s">
         <v>218</v>
       </c>
-      <c r="B189" t="s"/>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
@@ -2492,15 +2495,15 @@
       <c r="A216" t="s">
         <v>245</v>
       </c>
-      <c r="B216" t="s">
-        <v>246</v>
-      </c>
+      <c r="B216" t="s"/>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
+        <v>246</v>
+      </c>
+      <c r="B217" t="s">
         <v>247</v>
       </c>
-      <c r="B217" t="s"/>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
@@ -2575,8 +2578,14 @@
       <c r="B229" t="s"/>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" t="s"/>
+      <c r="A230" t="s">
+        <v>260</v>
+      </c>
       <c r="B230" t="s"/>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s"/>
+      <c r="B231" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/dist/diggr_vocabulary.xlsx
+++ b/dist/diggr_vocabulary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -832,15 +832,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -2588,6 +2588,6 @@
       <c r="B231" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>